--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALABAMA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALABAMA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D920"/>
+  <dimension ref="A1:D914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C31">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C55">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C84">
@@ -1639,7 +1639,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C96">
@@ -1761,7 +1761,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C109">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C128">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C130">
@@ -2265,12 +2265,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C143">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C145">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C150">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C155">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C165">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C172">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C180">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C199">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C209">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C213">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C217">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C227">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C229">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C233">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C235">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C239">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C242">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C245">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C246">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C249">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C253">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C257">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C261">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C271">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C287">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C290">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C293">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C303">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C306">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C309">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C312">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C318">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C323">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C329">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C330">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C337">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C347">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C350">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C352">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C355">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C359">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C363">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C367">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C369">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C371">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C377">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C380">
@@ -5623,7 +5623,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C399">
@@ -6143,7 +6143,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C439">
@@ -6499,7 +6499,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C466">
@@ -6743,7 +6743,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C484">
@@ -6782,7 +6782,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C487">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C489">
@@ -6891,7 +6891,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C499">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C503">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C506">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C508">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C516">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C538">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C547">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C595">
@@ -8287,7 +8287,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C602">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C604">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C623">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C638">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C640">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C643">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C647">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C648">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C651">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C664">
@@ -9111,7 +9111,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C665">
@@ -9163,7 +9163,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C669">
@@ -9176,7 +9176,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C670">
@@ -9189,7 +9189,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C671">
@@ -9228,7 +9228,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C674">
@@ -9368,7 +9368,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C684">
@@ -9511,7 +9511,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C695">
@@ -9550,7 +9550,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C698">
@@ -9628,7 +9628,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C704">
@@ -9680,7 +9680,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C708">
@@ -9693,7 +9693,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C709">
@@ -9706,7 +9706,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C710">
@@ -9719,7 +9719,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C711">
@@ -9732,7 +9732,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C712">
@@ -10085,7 +10085,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C738">
@@ -10363,7 +10363,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C759">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C766">
@@ -10524,7 +10524,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C771">
@@ -10563,7 +10563,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C774">
@@ -10685,7 +10685,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C783">
@@ -10724,7 +10724,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C786">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C796">
@@ -10997,7 +10997,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C807">
@@ -11010,7 +11010,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C808">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C824">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C825">
@@ -11244,7 +11244,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C826">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C833">
@@ -11387,7 +11387,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C837">
@@ -11426,7 +11426,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C840">
@@ -11478,7 +11478,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C844">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C852">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C855">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C860">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C862">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C881">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C889">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C891">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C898">
@@ -12406,41 +12406,6 @@
       </c>
       <c r="D914">
         <v>1</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
